--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/input/BioChemReactions_Maria_110923.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/input/BioChemReactions_Maria_110923.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\_A_09_NetworksSKM-R\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\_A_09_NetworksSKM-R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9F16E4-9FB9-4F9C-974D-8893B9972237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E1EFE-0CFE-49D5-B5B5-DEEB27A4F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="29565" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BiochemNet" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="185">
   <si>
     <t>notes</t>
   </si>
@@ -489,6 +489,108 @@
   </si>
   <si>
     <t>His</t>
+  </si>
+  <si>
+    <t>3-phospho-glycerate</t>
+  </si>
+  <si>
+    <t>Phosphoenol-pyruvate</t>
+  </si>
+  <si>
+    <t>Pyruvate</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA</t>
+  </si>
+  <si>
+    <t>alpha-keto-glutarate</t>
+  </si>
+  <si>
+    <t>Succinyl-coA</t>
+  </si>
+  <si>
+    <t>Isocitrate</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>Fumarate</t>
+  </si>
+  <si>
+    <t>Oxalocetate</t>
+  </si>
+  <si>
+    <t>Erhythrose-4-phosphate</t>
+  </si>
+  <si>
+    <t>DAHP</t>
+  </si>
+  <si>
+    <t>Chorismate</t>
+  </si>
+  <si>
+    <t>Anthranilate</t>
+  </si>
+  <si>
+    <t>Prephenate</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>Alpha-acetolactate</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>GABA</t>
+  </si>
+  <si>
+    <t>Ornithine</t>
+  </si>
+  <si>
+    <t>Citrulline</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Ribose-5-Phosphate</t>
+  </si>
+  <si>
+    <t>Aspartate</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>Aspartate semialdehyde</t>
+  </si>
+  <si>
+    <t>Homoserine-4-phosphate</t>
+  </si>
+  <si>
+    <t>Homocysteine</t>
+  </si>
+  <si>
+    <t>Alpha-ketobutyrate</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fpls.2021.772810/full</t>
   </si>
 </sst>
 </file>
@@ -987,56 +1089,55 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,20 +1415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23867C-B06F-4A95-B22D-67BDEEFDEA6C}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1344,7 +1445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1509,7 +1610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1523,7 +1624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1537,7 +1638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1551,7 +1652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1565,7 +1666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1593,7 +1694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1649,7 +1750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1663,7 +1764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1677,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1792,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1733,7 +1834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1775,7 +1876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1789,7 +1890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +1904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1817,7 +1918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1831,7 +1932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1862,7 +1963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1876,7 +1977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1904,7 +2005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +2019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1932,7 +2033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1946,7 +2047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1960,7 +2061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1974,7 +2075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +2089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2034,7 +2135,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -2052,7 +2153,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2070,7 +2171,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2189,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2106,7 +2207,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -2124,7 +2225,7 @@
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -2142,7 +2243,7 @@
       </c>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2261,7 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2178,7 +2279,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2196,7 +2297,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2214,7 +2315,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2231,7 +2332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -2248,7 +2349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -2265,7 +2366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2279,7 +2380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -2293,7 +2394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -2307,7 +2408,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -2321,7 +2422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -2335,7 +2436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -2349,7 +2450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -2363,7 +2464,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -2377,7 +2478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -2391,7 +2492,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -2405,7 +2506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -2419,7 +2520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -2433,7 +2534,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -2447,7 +2548,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -2461,7 +2562,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -2475,7 +2576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -2489,7 +2590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -2503,7 +2604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -2517,7 +2618,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -2531,7 +2632,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>124</v>
       </c>
@@ -2545,7 +2646,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -2559,7 +2660,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -2573,7 +2674,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -2587,7 +2688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -2601,7 +2702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -2615,7 +2716,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -2629,7 +2730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -2643,7 +2744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -2657,7 +2758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -2671,7 +2772,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -2685,7 +2786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -2699,7 +2800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -2713,7 +2814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -2727,7 +2828,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -2741,7 +2842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -2755,7 +2856,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>130</v>
       </c>
@@ -2769,7 +2870,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>130</v>
       </c>
@@ -2783,7 +2884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -2797,7 +2898,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -2811,7 +2912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -2825,7 +2926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +2940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -2853,7 +2954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>133</v>
       </c>
@@ -2867,7 +2968,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>134</v>
       </c>
@@ -2881,7 +2982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -2895,7 +2996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -2909,7 +3010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2923,7 +3024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2937,7 +3038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2951,7 +3052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -2965,7 +3066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2979,7 +3080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -2993,7 +3094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -3007,11 +3108,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>64</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>135</v>
       </c>
       <c r="C117" t="s">
@@ -3021,11 +3122,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>136</v>
       </c>
       <c r="C118" t="s">
@@ -3035,11 +3136,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>135</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>137</v>
       </c>
       <c r="C119" t="s">
@@ -3049,11 +3150,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>136</v>
       </c>
       <c r="C120" t="s">
@@ -3063,11 +3164,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>15</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>138</v>
       </c>
       <c r="C121" t="s">
@@ -3077,11 +3178,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>140</v>
       </c>
       <c r="C122" t="s">
@@ -3091,11 +3192,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>140</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>141</v>
       </c>
       <c r="C123" t="s">
@@ -3105,11 +3206,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>142</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>143</v>
       </c>
       <c r="C124" t="s">
@@ -3119,11 +3220,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>143</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>144</v>
       </c>
       <c r="C125" t="s">
@@ -3133,11 +3234,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>143</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>46</v>
       </c>
       <c r="C126" t="s">
@@ -3147,11 +3248,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>145</v>
       </c>
       <c r="C127" t="s">
@@ -3161,11 +3262,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>146</v>
       </c>
       <c r="C128" t="s">
@@ -3175,11 +3276,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>146</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>147</v>
       </c>
       <c r="C129" t="s">
@@ -3189,11 +3290,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>148</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>149</v>
       </c>
       <c r="C130" t="s">
@@ -3203,11 +3304,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>149</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>150</v>
       </c>
       <c r="C131" t="s">
@@ -3217,11 +3318,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>148</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>63</v>
       </c>
       <c r="C132" t="s">
@@ -3229,6 +3330,692 @@
       </c>
       <c r="D132" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" t="s">
+        <v>89</v>
+      </c>
+      <c r="C139" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>106</v>
+      </c>
+      <c r="B148" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148" t="s">
+        <v>117</v>
+      </c>
+      <c r="D148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
+        <v>117</v>
+      </c>
+      <c r="D149" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>153</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>153</v>
+      </c>
+      <c r="B161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>117</v>
+      </c>
+      <c r="D166" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" t="s">
+        <v>117</v>
+      </c>
+      <c r="D167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" t="s">
+        <v>117</v>
+      </c>
+      <c r="D168" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>117</v>
+      </c>
+      <c r="D176" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" t="s">
+        <v>117</v>
+      </c>
+      <c r="D180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/input/BioChemReactions_Maria_110923.xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/input/BioChemReactions_Maria_110923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\_A_09_NetworksSKM-R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E1EFE-0CFE-49D5-B5B5-DEEB27A4F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6112BA-C5C8-4C29-801B-DC5309CA44A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="196">
   <si>
     <t>notes</t>
   </si>
@@ -591,6 +591,39 @@
   </si>
   <si>
     <t>https://www.frontiersin.org/articles/10.3389/fpls.2021.772810/full</t>
+  </si>
+  <si>
+    <t>Aspartyl Phosphate</t>
+  </si>
+  <si>
+    <t>Aspartyl semialdehyde</t>
+  </si>
+  <si>
+    <t>Homoserine</t>
+  </si>
+  <si>
+    <t>O-phosphohomoserie</t>
+  </si>
+  <si>
+    <t>2,3-Dihydrodipicolinate</t>
+  </si>
+  <si>
+    <t>Saccharopine</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>2-aminoadipate-6-semialdehyde</t>
+  </si>
+  <si>
+    <t>Pipecolate</t>
+  </si>
+  <si>
+    <t>2-aminoadipate</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fpls.2020.00928/full</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23867C-B06F-4A95-B22D-67BDEEFDEA6C}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3838,7 +3871,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
@@ -4016,6 +4049,342 @@
       </c>
       <c r="D181" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>143</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" t="s">
+        <v>117</v>
+      </c>
+      <c r="D184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185" t="s">
+        <v>117</v>
+      </c>
+      <c r="D185" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>146</v>
+      </c>
+      <c r="C186" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187" t="s">
+        <v>146</v>
+      </c>
+      <c r="C187" t="s">
+        <v>117</v>
+      </c>
+      <c r="D187" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>146</v>
+      </c>
+      <c r="B188" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188" t="s">
+        <v>117</v>
+      </c>
+      <c r="D188" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>145</v>
+      </c>
+      <c r="B191" t="s">
+        <v>171</v>
+      </c>
+      <c r="C191" t="s">
+        <v>117</v>
+      </c>
+      <c r="D191" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" t="s">
+        <v>166</v>
+      </c>
+      <c r="C192" t="s">
+        <v>117</v>
+      </c>
+      <c r="D192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" t="s">
+        <v>117</v>
+      </c>
+      <c r="D193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" t="s">
+        <v>167</v>
+      </c>
+      <c r="C194" t="s">
+        <v>117</v>
+      </c>
+      <c r="D194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" t="s">
+        <v>117</v>
+      </c>
+      <c r="D196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>144</v>
+      </c>
+      <c r="B197" t="s">
+        <v>190</v>
+      </c>
+      <c r="C197" t="s">
+        <v>117</v>
+      </c>
+      <c r="D197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>190</v>
+      </c>
+      <c r="B198" t="s">
+        <v>148</v>
+      </c>
+      <c r="C198" t="s">
+        <v>117</v>
+      </c>
+      <c r="D198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>148</v>
+      </c>
+      <c r="B199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" t="s">
+        <v>117</v>
+      </c>
+      <c r="D199" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>148</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>117</v>
+      </c>
+      <c r="D200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" t="s">
+        <v>192</v>
+      </c>
+      <c r="C201" t="s">
+        <v>117</v>
+      </c>
+      <c r="D201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" t="s">
+        <v>117</v>
+      </c>
+      <c r="D202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" t="s">
+        <v>194</v>
+      </c>
+      <c r="C203" t="s">
+        <v>117</v>
+      </c>
+      <c r="D203" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" t="s">
+        <v>148</v>
+      </c>
+      <c r="C204" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" t="s">
+        <v>154</v>
+      </c>
+      <c r="C205" t="s">
+        <v>117</v>
+      </c>
+      <c r="D205" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
